--- a/Macro-planning-118.xlsx
+++ b/Macro-planning-118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Downloads/OneDrive_1_15-06-2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57F7985-C1EE-C647-A5B2-16D6F144D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636E6797-AC2C-5049-B3D9-233DC0F457F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="1320" windowWidth="28800" windowHeight="16420" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votre projet" sheetId="1" r:id="rId1"/>
@@ -489,42 +489,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -562,6 +526,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -682,7 +682,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>66</xdr:col>
-          <xdr:colOff>139701</xdr:colOff>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
@@ -1052,7 +1052,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1069,57 +1069,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="G1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="G2" s="3">
         <f ca="1">TODAY()</f>
-        <v>44362</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:67" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:67" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="35" t="s">
         <v>15</v>
       </c>
@@ -1128,10 +1128,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:67" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="30">
         <v>44361</v>
       </c>
@@ -1140,13 +1140,13 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:67" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="18"/>
       <c r="G7" s="15"/>
       <c r="H7" s="5">
@@ -1637,19 +1637,19 @@
     </row>
     <row r="9" spans="1:67" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="17"/>
@@ -1896,11 +1896,11 @@
     </row>
     <row r="10" spans="1:67" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="17"/>
       <c r="H10" s="10">
         <f>DAY(H7)</f>
@@ -2217,86 +2217,86 @@
       <c r="BO11" s="25"/>
     </row>
     <row r="12" spans="1:67" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="47">
         <v>44361</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="48">
         <v>7</v>
       </c>
       <c r="E12" s="34">
         <f>IF(E14="","",IF($C$5="OUI",WORKDAY(C12,IF(WEEKDAY(C12,2)&gt;=6,D12,D12-1)),C12+D12-1))</f>
         <v>44369</v>
       </c>
-      <c r="F12" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="62"/>
-      <c r="BB12" s="62"/>
-      <c r="BC12" s="62"/>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
-      <c r="BF12" s="62"/>
-      <c r="BG12" s="62"/>
-      <c r="BH12" s="62"/>
-      <c r="BI12" s="62"/>
-      <c r="BJ12" s="62"/>
-      <c r="BK12" s="62"/>
-      <c r="BL12" s="62"/>
-      <c r="BM12" s="62"/>
-      <c r="BN12" s="62"/>
-      <c r="BO12" s="62"/>
+      <c r="F12" s="49">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BC12" s="50"/>
+      <c r="BD12" s="50"/>
+      <c r="BE12" s="50"/>
+      <c r="BF12" s="50"/>
+      <c r="BG12" s="50"/>
+      <c r="BH12" s="50"/>
+      <c r="BI12" s="50"/>
+      <c r="BJ12" s="50"/>
+      <c r="BK12" s="50"/>
+      <c r="BL12" s="50"/>
+      <c r="BM12" s="50"/>
+      <c r="BN12" s="50"/>
+      <c r="BO12" s="50"/>
     </row>
     <row r="13" spans="1:67" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
@@ -2316,11 +2316,11 @@
         <v>44379</v>
       </c>
       <c r="F13" s="32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" ref="G13:G42" si="7">C13+F13*(E13-C13)</f>
-        <v>44362.8</v>
+        <v>44366.400000000001</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2484,11 +2484,11 @@
         <v>44379</v>
       </c>
       <c r="F15" s="32">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="7"/>
-        <v>44362.8</v>
+        <v>44368.2</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2568,88 +2568,88 @@
         <v>44379</v>
       </c>
       <c r="F16" s="19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="7"/>
-        <v>44368</v>
+        <v>44369.1</v>
       </c>
     </row>
     <row r="17" spans="1:67" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="55"/>
-      <c r="AW17" s="55"/>
-      <c r="AX17" s="55"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="55"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="55"/>
-      <c r="BC17" s="55"/>
-      <c r="BD17" s="55"/>
-      <c r="BE17" s="55"/>
-      <c r="BF17" s="55"/>
-      <c r="BG17" s="55"/>
-      <c r="BH17" s="55"/>
-      <c r="BI17" s="55"/>
-      <c r="BJ17" s="55"/>
-      <c r="BK17" s="55"/>
-      <c r="BL17" s="55"/>
-      <c r="BM17" s="55"/>
-      <c r="BN17" s="55"/>
-      <c r="BO17" s="55"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="43"/>
+      <c r="AS17" s="43"/>
+      <c r="AT17" s="43"/>
+      <c r="AU17" s="43"/>
+      <c r="AV17" s="43"/>
+      <c r="AW17" s="43"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="43"/>
+      <c r="BA17" s="43"/>
+      <c r="BB17" s="43"/>
+      <c r="BC17" s="43"/>
+      <c r="BD17" s="43"/>
+      <c r="BE17" s="43"/>
+      <c r="BF17" s="43"/>
+      <c r="BG17" s="43"/>
+      <c r="BH17" s="43"/>
+      <c r="BI17" s="43"/>
+      <c r="BJ17" s="43"/>
+      <c r="BK17" s="43"/>
+      <c r="BL17" s="43"/>
+      <c r="BM17" s="43"/>
+      <c r="BN17" s="43"/>
+      <c r="BO17" s="43"/>
     </row>
     <row r="18" spans="1:67" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
@@ -2708,71 +2708,71 @@
       <c r="B20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="51"/>
-      <c r="BH20" s="51"/>
-      <c r="BI20" s="51"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="51"/>
-      <c r="BM20" s="51"/>
-      <c r="BN20" s="51"/>
-      <c r="BO20" s="51"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
+      <c r="BL20" s="39"/>
+      <c r="BM20" s="39"/>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="39"/>
     </row>
     <row r="21" spans="1:67" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
@@ -2817,11 +2817,11 @@
         <v>44386</v>
       </c>
       <c r="F22" s="19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" si="7"/>
-        <v>44378</v>
+        <v>44379.6</v>
       </c>
     </row>
     <row r="23" spans="1:67" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3434,11 +3434,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
@@ -3448,6 +3443,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:BO8">
     <cfRule type="expression" dxfId="8" priority="12">
@@ -3610,15 +3610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F5EA16D3B64BE4780DF9F502652BAD1" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7ac041a6b74513fea15c01815e7c0bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d6ca9f312fcd1c0ab10337cdbdb729">
     <xsd:element name="properties">
@@ -3732,6 +3723,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3739,14 +3739,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{328B6B81-0B31-4A79-BDC8-05EBE00EC42D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{128A96E4-DCA8-4574-B75C-05A6009E3CFE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3762,6 +3754,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{328B6B81-0B31-4A79-BDC8-05EBE00EC42D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A2302F-8C95-49D8-B130-BE4B3DABBE23}">
   <ds:schemaRefs>
